--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -28,16 +28,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Action_1</t>
-  </si>
-  <si>
-    <t>Action_1_Target</t>
-  </si>
-  <si>
-    <t>Action_2</t>
-  </si>
-  <si>
-    <t>Action_2_Target</t>
+    <t>PreActions</t>
+  </si>
+  <si>
+    <t>PostActions</t>
   </si>
   <si>
     <t>UnlockTask</t>
@@ -52,40 +46,37 @@
     <t>Enums.TASK_TYPE</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION</t>
-  </si>
-  <si>
     <t>int[]</t>
   </si>
   <si>
-    <t>Task1</t>
-  </si>
-  <si>
-    <t>Task1_Desc</t>
+    <t>Unlock Day 1</t>
+  </si>
+  <si>
+    <t>Time for the next day!</t>
   </si>
   <si>
     <t>Enums.TASK_TYPE.Chat</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION.AddInteraction</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.RemoveInteraction</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>Task2</t>
-  </si>
-  <si>
-    <t>Task2_Desc</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.None</t>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Unlock Day 2</t>
+  </si>
+  <si>
+    <t>Unlock Day 3</t>
+  </si>
+  <si>
+    <t>Unlock Day 4</t>
+  </si>
+  <si>
+    <t>Unlock Day 5</t>
+  </si>
+  <si>
+    <t>Unlock Day 6</t>
+  </si>
+  <si>
+    <t>Unlock Day 7</t>
   </si>
   <si>
     <t>Complete a platformer stage</t>
@@ -95,12 +86,6 @@
   </si>
   <si>
     <t>Enums.TASK_TYPE.Game</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>2,6</t>
   </si>
 </sst>
 </file>
@@ -722,15 +707,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1265,25 +1247,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="36.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="13.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,127 +1284,212 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -58,7 +58,7 @@
     <t>Enums.TASK_TYPE.Chat</t>
   </si>
   <si>
-    <t>3,4</t>
+    <t>3,4,5</t>
   </si>
   <si>
     <t>Unlock Day 2</t>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -86,12 +99,15 @@
   </si>
   <si>
     <t>Enums.TASK_TYPE.Game</t>
+  </si>
+  <si>
+    <t>Complete a shooter stage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1247,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1492,6 +1508,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>SceneName</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>Time for the next day!</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Enums.TASK_TYPE.Chat</t>
   </si>
   <si>
@@ -96,6 +102,9 @@
   </si>
   <si>
     <t>Go and try a mini game</t>
+  </si>
+  <si>
+    <t>Audience Platform</t>
   </si>
   <si>
     <t>Enums.TASK_TYPE.Game</t>
@@ -1263,22 +1272,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,16 +1311,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1318,73 +1332,82 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
       <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -1392,22 +1415,25 @@
       <c r="G5">
         <v>-1</v>
       </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -1415,22 +1441,25 @@
       <c r="G6">
         <v>-1</v>
       </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -1438,22 +1467,25 @@
       <c r="G7">
         <v>-1</v>
       </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1461,22 +1493,25 @@
       <c r="G8">
         <v>-1</v>
       </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -1484,50 +1519,59 @@
       <c r="G9">
         <v>-1</v>
       </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
       <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
         <v>24</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,12 @@
     <t>UnlockTask</t>
   </si>
   <si>
+    <t>TrackTarget</t>
+  </si>
+  <si>
+    <t>bTrackNPC</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>Unlock Day 1</t>
@@ -1272,13 +1281,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
@@ -1287,9 +1296,10 @@
     <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="25.7777777777778" customWidth="1"/>
+    <col min="9" max="10" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,74 +1324,92 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -1392,23 +1420,29 @@
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5">
         <v>-1</v>
       </c>
@@ -1418,22 +1452,28 @@
       <c r="H5">
         <v>-1</v>
       </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -1444,22 +1484,28 @@
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -1470,22 +1516,28 @@
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1496,22 +1548,28 @@
       <c r="H8">
         <v>-1</v>
       </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -1522,22 +1580,28 @@
       <c r="H9">
         <v>-1</v>
       </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -1548,22 +1612,28 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -1573,6 +1643,12 @@
       </c>
       <c r="H11">
         <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -41,85 +41,79 @@
     <t>SceneName</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>PreActions</t>
-  </si>
-  <si>
-    <t>PostActions</t>
-  </si>
-  <si>
-    <t>UnlockTask</t>
-  </si>
-  <si>
     <t>TrackTarget</t>
   </si>
   <si>
     <t>bTrackNPC</t>
   </si>
   <si>
+    <t>bHidden</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Enums.TASK_TYPE</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>Unlock Day 1</t>
-  </si>
-  <si>
-    <t>Time for the next day!</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Enums.TASK_TYPE.Chat</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>Unlock Day 2</t>
-  </si>
-  <si>
-    <t>Unlock Day 3</t>
-  </si>
-  <si>
-    <t>Unlock Day 4</t>
-  </si>
-  <si>
-    <t>Unlock Day 5</t>
-  </si>
-  <si>
-    <t>Unlock Day 6</t>
-  </si>
-  <si>
-    <t>Unlock Day 7</t>
-  </si>
-  <si>
-    <t>Complete a platformer stage</t>
-  </si>
-  <si>
-    <t>Go and try a mini game</t>
-  </si>
-  <si>
-    <t>Audience Platform</t>
-  </si>
-  <si>
-    <t>Enums.TASK_TYPE.Game</t>
-  </si>
-  <si>
-    <t>Complete a shooter stage</t>
+    <t>Hey, you are finally awake!</t>
+  </si>
+  <si>
+    <t>...?</t>
+  </si>
+  <si>
+    <t>RoomALevel</t>
+  </si>
+  <si>
+    <t>Where am I?</t>
+  </si>
+  <si>
+    <t>Check out the rules on the wall</t>
+  </si>
+  <si>
+    <t>Go for a walk outside</t>
+  </si>
+  <si>
+    <t>Me?</t>
+  </si>
+  <si>
+    <t>Talk with NPC_1_1</t>
+  </si>
+  <si>
+    <t>DefaultLevel</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Talk about today's match</t>
+  </si>
+  <si>
+    <t>AudienceLevel</t>
+  </si>
+  <si>
+    <t>Just a normal day</t>
+  </si>
+  <si>
+    <t>Talk with Guide</t>
+  </si>
+  <si>
+    <t>Good night to the world</t>
+  </si>
+  <si>
+    <t>Go to the team room and sleep...</t>
+  </si>
+  <si>
+    <t>Say Hi</t>
+  </si>
+  <si>
+    <t>The mysterious man</t>
+  </si>
+  <si>
+    <t>GuildScene</t>
   </si>
 </sst>
 </file>
@@ -1281,25 +1275,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="25.7777777777778" customWidth="1"/>
-    <col min="9" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,333 +1311,230 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1100</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1200</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1001</v>
+      </c>
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="b">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="b">
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="b">
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1102</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>8</v>
+        <v>1100</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1101</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>-1</v>
       </c>
-      <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
+      <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" t="b">
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Say Hi</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>The mysterious man</t>
@@ -1278,7 +1281,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1503,7 +1506,9 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
@@ -1522,11 +1527,13 @@
         <v>1101</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>-1</v>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -80,10 +80,10 @@
     <t>Me?</t>
   </si>
   <si>
-    <t>Talk with NPC_1_1</t>
-  </si>
-  <si>
-    <t>DefaultLevel</t>
+    <t>Talk with Dove</t>
+  </si>
+  <si>
+    <t>EntranceLevel</t>
   </si>
   <si>
     <t>Round 1</t>
@@ -117,6 +117,60 @@
   </si>
   <si>
     <t>GuildScene</t>
+  </si>
+  <si>
+    <t>Locked and Loaded</t>
+  </si>
+  <si>
+    <t>Compete in the game</t>
+  </si>
+  <si>
+    <t>MatchingLevel</t>
+  </si>
+  <si>
+    <t>A brave new day</t>
+  </si>
+  <si>
+    <t>Head to Summit Feast</t>
+  </si>
+  <si>
+    <t>See you again</t>
+  </si>
+  <si>
+    <t>Dove has something important for you, it's time to see her - again</t>
+  </si>
+  <si>
+    <t>So-called insider</t>
+  </si>
+  <si>
+    <t>Match with Dove's suggestion</t>
+  </si>
+  <si>
+    <t>Fake News</t>
+  </si>
+  <si>
+    <t>Our intellegence is incorrect</t>
+  </si>
+  <si>
+    <t>Tomorrow will be better</t>
+  </si>
+  <si>
+    <t>Free food</t>
+  </si>
+  <si>
+    <t>Don't forget to grab your free food, bro</t>
+  </si>
+  <si>
+    <t>Text Future</t>
+  </si>
+  <si>
+    <t>End Of Demo</t>
+  </si>
+  <si>
+    <t>Here is the end of the demo version, the rest of the stories will be complete in the following months. Use Debug menu to try more levels and features.</t>
+  </si>
+  <si>
+    <t>Take Food</t>
   </si>
 </sst>
 </file>
@@ -1278,14 +1332,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
@@ -1464,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1542,6 +1597,374 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>1013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1001</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>1014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>1201</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1001</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1004</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>1007</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2005</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1102</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>2200</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>4100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>5100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>6100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>7100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>Text Future</t>
+  </si>
+  <si>
+    <t>Animal Crossing I</t>
+  </si>
+  <si>
+    <t>Talk with the cat owner</t>
+  </si>
+  <si>
+    <t>Animal Crossing II</t>
+  </si>
+  <si>
+    <t>Talk with the cat</t>
+  </si>
+  <si>
+    <t>The mysterious lady</t>
+  </si>
+  <si>
+    <t>Talk with Samantha</t>
+  </si>
+  <si>
+    <t>Postal Service</t>
+  </si>
+  <si>
+    <t>Someone unexpected found you...</t>
+  </si>
+  <si>
+    <t>AudienceLowLevel</t>
   </si>
   <si>
     <t>End Of Demo</t>
@@ -1332,19 +1359,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13.7787610619469" customWidth="1"/>
+    <col min="2" max="2" width="43.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="38.3362831858407" customWidth="1"/>
+    <col min="4" max="4" width="30.1150442477876" customWidth="1"/>
+    <col min="5" max="6" width="14.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1832,7 +1859,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>3000</v>
+        <v>2102</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -1841,7 +1868,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1850,18 +1877,18 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3100</v>
+        <v>2103</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1878,16 +1905,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>4100</v>
+        <v>2104</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -1901,39 +1928,39 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>5100</v>
+        <v>3000</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>2002</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>6100</v>
+        <v>9999</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -1942,18 +1969,18 @@
         <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>7100</v>
+        <v>3100</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1965,6 +1992,98 @@
         <v>1</v>
       </c>
       <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>4100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>5100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>6100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>7100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1756,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>

--- a/Assets/Designs/General/Task.xlsx
+++ b/Assets/Designs/General/Task.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>AudienceLowLevel</t>
+  </si>
+  <si>
+    <t>Find a connector</t>
   </si>
   <si>
     <t>End Of Demo</t>
@@ -1359,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1951,19 +1954,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>9999</v>
+        <v>3001</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>1008</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1974,16 +1977,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>3100</v>
+        <v>9999</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>-1</v>
@@ -1992,18 +1995,18 @@
         <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>4100</v>
+        <v>3100</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -2020,13 +2023,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -2043,13 +2046,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>6100</v>
+        <v>5100</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -2066,13 +2069,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>7100</v>
+        <v>6100</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -2084,6 +2087,29 @@
         <v>1</v>
       </c>
       <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>7100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
         <v>1</v>
       </c>
     </row>
